--- a/网页测试用例.xlsx
+++ b/网页测试用例.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10335" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10335"/>
   </bookViews>
   <sheets>
     <sheet name="Manage" sheetId="1" r:id="rId1"/>
@@ -170,21 +170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.1、跳转至新增页面；
-1.2、Title/Content/PublishedDate/Is Show标题前存在必填项标识
-2、页面显示：保存失败，每个输入框后面提示:必填项不能为空
-3、跳转回管理首页,新闻列表里没有增添任何纪录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1、光标停留在第100个字符后,无法显示第101个字符
-2、光标停留在第200个字符后,无法显示第2001个字符
-3、页面显示：保存失败，PublishedDate输入框后面提示:日期格式为:YY/MM/DD HH/MM/SS
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1、Title：3；
 Content：!@#$%^&amp;*()_+ ；
 PublishDate:2018/10/8 00:00:00；
@@ -203,12 +188,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、在标题Title输入框中输入101个字符
-2、在正文Content输入框中输入2001个字符
-3、PublishDate输入不符合条件格式的日期,点击保存按扭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1、点击管理首页新增按钮进入新增页面或者点击新闻列表里任意1条新闻的编辑按钮进入编辑页面
 2、标题Title输入框支持最多输入100字;Title输入框支持最多输入2000字;PublishedDate的格式要求为:YY/MM/DD HH/MM/SS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -295,6 +274,27 @@
 5、点击新闻详情页面状态栏的“新闻”标题
 6、点击新闻页面状态栏的“新闻”标题
 7、点击新闻页面状态栏的“首页”标题
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1、跳转至新增页面；
+1.2、Title/Content/PublishedDate/Is Show标题前存在必填项标识
+2、页面显示：保存失败，每个输入框后面提示:必填项不能为空
+3、跳转回管理首页,新闻列表里没有增添任何纪录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、在标题Title输入框中输入101个字符
+2、在正文Content输入框中输入2001个字符
+3、PublishDate输入不符合条件格式的日期,点击保存按扭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1、光标停留在第100个字符后,无法显示第101个字符
+2、光标停留在第200个字符后,无法显示第2001个字符
+3、页面显示：保存失败，PublishedDate输入框后面提示:日期格式为:YY/MM/DD HH/MM/SS
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -673,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -720,7 +720,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
@@ -728,16 +728,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="162" x14ac:dyDescent="0.15">
@@ -768,7 +768,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>18</v>
@@ -788,7 +788,7 @@
         <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
@@ -796,10 +796,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>6</v>
@@ -819,7 +819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -856,13 +856,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="189" x14ac:dyDescent="0.15">
@@ -870,16 +870,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
@@ -887,16 +887,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
